--- a/SWOT analizis.xlsx
+++ b/SWOT analizis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghima\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2024e_ghian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2746DE-280A-4B7D-8EA5-9A5D5BA3159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB08AE2-296B-4037-AB48-B36507BF7D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SWOT tábla" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> GYENGESÉGEK (Weaknesses)</t>
   </si>
@@ -83,13 +83,19 @@
   </si>
   <si>
     <t>Kevés türelem</t>
+  </si>
+  <si>
+    <t>Külső tényezők</t>
+  </si>
+  <si>
+    <t>Belső tényezők</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +121,14 @@
     <font>
       <b/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,12 +217,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -511,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +541,10 @@
     <col min="1" max="5" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,7 +554,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -542,7 +564,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -552,7 +574,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -562,7 +584,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -572,7 +594,10 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,47 +607,50 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -632,6 +660,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -640,21 +676,14 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:C1"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>